--- a/public/demo_files/Demo_PUCDetails.xlsx
+++ b/public/demo_files/Demo_PUCDetails.xlsx
@@ -87,74 +87,138 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:AMT4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="K4" sqref="A2:K4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" style="1" width="8.53" customWidth="1"/>
-    <col min="5" max="5" style="1" width="42.78" customWidth="1"/>
-    <col min="6" max="1025" style="1" width="8.53" customWidth="1"/>
-    <col min="1026" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="1" style="1" width="16.141887019230772" customWidth="1"/>
+    <col min="2" max="2" style="1" width="18.570312500000004" customWidth="1"/>
+    <col min="3" max="3" style="1" width="14.856250000000001" customWidth="1"/>
+    <col min="4" max="4" style="1" width="15.141947115384617" customWidth="1"/>
+    <col min="5" max="5" style="1" width="14.570552884615386" customWidth="1"/>
+    <col min="6" max="6" style="1" width="16.28473557692308" customWidth="1"/>
+    <col min="7" max="7" style="1" width="20.855889423076924" customWidth="1"/>
+    <col min="8" max="8" style="1" width="16.71328125" customWidth="1"/>
+    <col min="9" max="9" style="1" width="14.142007211538463" customWidth="1"/>
+    <col min="10" max="10" style="1" width="32.99801682692308" customWidth="1"/>
+    <col min="11" max="11" style="1" width="16.141887019230772" customWidth="1"/>
+    <col min="12" max="12" style="1" width="11.427884615384617" customWidth="1"/>
+    <col min="13" max="13" style="1" width="16.141887019230772" customWidth="1"/>
+    <col min="14" max="14" style="1" width="28.998257211538466" customWidth="1"/>
+    <col min="15" max="15" style="1" width="16.427584134615387" customWidth="1"/>
+    <col min="16" max="16" style="1" width="15.427644230769232" customWidth="1"/>
+    <col min="17" max="17" style="1" width="15.856189903846156" customWidth="1"/>
+    <col min="18" max="18" style="1" width="12.856370192307693" customWidth="1"/>
+    <col min="19" max="19" style="1" width="13.713461538461539" customWidth="1"/>
+    <col min="20" max="1034" style="1" width="8.53" customWidth="1"/>
+    <col min="1035" max="16384" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025">
+    <row r="1" spans="1:1034" ht="15">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Fleet Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Vehicle Number</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Agent Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>PUC Number</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Engine No.</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Chassis No</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Manufacture Year</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Type Of Body</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Type Of Fuel</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Seating Capacity(including Driver)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Cubic Capacity</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Amount </t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Payment Mode</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Pay Number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Pay Date</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Pay Bank</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Pay Branch</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Valid From</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Valid Till</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:1025" ht="13.8"/>
-    <row r="4" spans="1:1025" ht="13.8"/>
+    <row r="2" spans="1:1034" ht="13.8">
+      <c r="F2"/>
+    </row>
+    <row r="4" spans="1:1034" ht="13.8"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>

--- a/public/demo_files/Demo_PUCDetails.xlsx
+++ b/public/demo_files/Demo_PUCDetails.xlsx
@@ -87,10 +87,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AMT4"/>
+  <dimension ref="A1:AMU4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -99,26 +99,27 @@
     <col min="2" max="2" style="1" width="18.570312500000004" customWidth="1"/>
     <col min="3" max="3" style="1" width="14.856250000000001" customWidth="1"/>
     <col min="4" max="4" style="1" width="15.141947115384617" customWidth="1"/>
-    <col min="5" max="5" style="1" width="14.570552884615386" customWidth="1"/>
-    <col min="6" max="6" style="1" width="16.28473557692308" customWidth="1"/>
-    <col min="7" max="7" style="1" width="20.855889423076924" customWidth="1"/>
-    <col min="8" max="8" style="1" width="16.71328125" customWidth="1"/>
-    <col min="9" max="9" style="1" width="14.142007211538463" customWidth="1"/>
-    <col min="10" max="10" style="1" width="32.99801682692308" customWidth="1"/>
-    <col min="11" max="11" style="1" width="16.141887019230772" customWidth="1"/>
-    <col min="12" max="12" style="1" width="11.427884615384617" customWidth="1"/>
-    <col min="13" max="13" style="1" width="16.141887019230772" customWidth="1"/>
-    <col min="14" max="14" style="1" width="28.998257211538466" customWidth="1"/>
-    <col min="15" max="15" style="1" width="16.427584134615387" customWidth="1"/>
-    <col min="16" max="16" style="1" width="15.427644230769232" customWidth="1"/>
-    <col min="17" max="17" style="1" width="15.856189903846156" customWidth="1"/>
-    <col min="18" max="18" style="1" width="12.856370192307693" customWidth="1"/>
-    <col min="19" max="19" style="1" width="13.713461538461539" customWidth="1"/>
-    <col min="20" max="1034" style="1" width="8.53" customWidth="1"/>
-    <col min="1035" max="16384" style="1" width="9.142307692307693"/>
+    <col min="5" max="5" style="1" width="18.284615384615385" customWidth="1"/>
+    <col min="6" max="6" style="1" width="14.570552884615386" customWidth="1"/>
+    <col min="7" max="7" style="1" width="16.28473557692308" customWidth="1"/>
+    <col min="8" max="8" style="1" width="20.855889423076924" customWidth="1"/>
+    <col min="9" max="9" style="1" width="16.71328125" customWidth="1"/>
+    <col min="10" max="10" style="1" width="14.142007211538463" customWidth="1"/>
+    <col min="11" max="11" style="1" width="32.99801682692308" customWidth="1"/>
+    <col min="12" max="12" style="1" width="16.141887019230772" customWidth="1"/>
+    <col min="13" max="13" style="1" width="11.427884615384617" customWidth="1"/>
+    <col min="14" max="14" style="1" width="16.141887019230772" customWidth="1"/>
+    <col min="15" max="15" style="1" width="28.998257211538466" customWidth="1"/>
+    <col min="16" max="16" style="1" width="16.427584134615387" customWidth="1"/>
+    <col min="17" max="17" style="1" width="15.427644230769232" customWidth="1"/>
+    <col min="18" max="18" style="1" width="15.856189903846156" customWidth="1"/>
+    <col min="19" max="19" style="1" width="12.856370192307693" customWidth="1"/>
+    <col min="20" max="20" style="1" width="13.713461538461539" customWidth="1"/>
+    <col min="21" max="1035" style="1" width="8.53" customWidth="1"/>
+    <col min="1036" max="16384" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1034" ht="15">
+    <row r="1" spans="1:1035" ht="15">
       <c r="A1" t="inlineStr">
         <is>
           <t>Fleet Code</t>
@@ -141,84 +142,87 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>PUC Amount</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Engine No.</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Chassis No</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Manufacture Year</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Type Of Body</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Type Of Fuel</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Seating Capacity(including Driver)</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Cubic Capacity</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Amount </t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Payment Mode</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Pay Number</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Pay Date</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Pay Bank</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Pay Branch</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Valid From</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Valid Till</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:1034" ht="13.8">
-      <c r="F2"/>
-    </row>
-    <row r="4" spans="1:1034" ht="13.8"/>
+    <row r="2" spans="1:1035" ht="13.8"/>
+    <row r="4" spans="1:1035" ht="13.8"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
